--- a/ig/ch-epr-term/ValueSet-DocumentEntry.practiceSettingCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.practiceSettingCode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,9 +90,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Medical specialisation of the data captured in the document as per Annex 3; EPRO-FDHA.
-      This attribute assigns the contents of a document to a medical specialisation. It is conceivable that this information will assist the patient with setting or changing the confidentiality level of documents, which is relevant for controlling access.
-    </t>
+    <t>Medical specialisation of the data captured in the document as per Annex 3; EPRO-FDHA.
+      This attribute assigns the contents of a document to a medical specialisation. It is conceivable that this information will assist the patient with setting or changing the confidentiality level of documents, which is relevant for controlling access.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -111,6 +110,30 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>408470005</t>
+  </si>
+  <si>
+    <t>Obstetrics (qualifier value)</t>
+  </si>
+  <si>
+    <t>722163006</t>
+  </si>
+  <si>
+    <t>Dentistry (qualifier value)</t>
+  </si>
+  <si>
+    <t>773568002</t>
+  </si>
+  <si>
+    <t>Emergency medicine (qualifier value)</t>
+  </si>
+  <si>
+    <t>408463005</t>
+  </si>
+  <si>
+    <t>Vascular surgery (qualifier value)</t>
   </si>
   <si>
     <t>394805004</t>
@@ -607,10 +630,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -762,7 +785,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1273,15 +1296,47 @@
         <v>154</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-term/ValueSet-DocumentEntry.practiceSettingCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.practiceSettingCode.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.1.18 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.1.18 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
